--- a/data/trans_orig/P19C10_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Provincia-trans_orig.xlsx
@@ -551,7 +551,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula / solo 2023 en 2023 (tasa de respuesta: 99,54%)</t>
+          <t>Población según si el motivo por su última visita al dentista fue por dolor de mandíbula en 2023 (tasa de respuesta: 99,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/P19C10_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P19C10_2023-Provincia-trans_orig.xlsx
@@ -757,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3319</v>
+        <v>3216</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003215936860690387</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01072338494731484</v>
+        <v>0.01039195857312229</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -778,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>3902</v>
+        <v>3111</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001630483867475351</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006392637382387889</v>
+        <v>0.00509649834145399</v>
       </c>
     </row>
     <row r="5">
@@ -817,7 +817,7 @@
         <v>308469</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>306145</v>
+        <v>306248</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>309464</v>
@@ -826,7 +826,7 @@
         <v>0.9967840631393095</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9892766150526872</v>
+        <v>0.9896080414268769</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -838,7 +838,7 @@
         <v>609386</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>606479</v>
+        <v>607270</v>
       </c>
       <c r="T5" s="5" t="n">
         <v>610381</v>
@@ -847,7 +847,7 @@
         <v>0.9983695161325247</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.993607362617614</v>
+        <v>0.9949035016585484</v>
       </c>
       <c r="W5" s="6" t="n">
         <v>1</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6978</v>
+        <v>8164</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.002618238453810573</v>
@@ -954,7 +954,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01346958916196517</v>
+        <v>0.01575927910330054</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4213</v>
+        <v>4202</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.002238214964334202</v>
@@ -975,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.007924058451889985</v>
+        <v>0.007903777199428899</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>3</v>
@@ -984,19 +984,19 @@
         <v>2546</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7924</v>
+        <v>8985</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.002425767759852019</v>
+        <v>0.00242576775985202</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0005583769874025774</v>
+        <v>0.0005528552162643483</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.007549565541435695</v>
+        <v>0.008560008339453092</v>
       </c>
     </row>
     <row r="8">
@@ -1013,7 +1013,7 @@
         <v>516672</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>511050</v>
+        <v>509864</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>518028</v>
@@ -1022,7 +1022,7 @@
         <v>0.9973817615461894</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9865304108380346</v>
+        <v>0.9842407208966995</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1034,16 +1034,16 @@
         <v>530422</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>527399</v>
+        <v>527410</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>531612</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.997761785035666</v>
+        <v>0.9977617850356658</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.99207594154811</v>
+        <v>0.9920962228005711</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1055,19 +1055,19 @@
         <v>1047094</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1041716</v>
+        <v>1040655</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1049054</v>
+        <v>1049060</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9975742322401481</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9924504344585642</v>
+        <v>0.9914399916605469</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9994416230125973</v>
+        <v>0.9994471447837358</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>3775</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1344</v>
+        <v>1308</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>9578</v>
+        <v>9898</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01104672565317458</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003933514548714692</v>
+        <v>0.003827183700178827</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02802859093653391</v>
+        <v>0.02896616270660966</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -1193,19 +1193,19 @@
         <v>3775</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1169</v>
+        <v>1273</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8643</v>
+        <v>9699</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00588021547013387</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001820739326973031</v>
+        <v>0.00198242784265669</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01346466031388585</v>
+        <v>0.01510860303399669</v>
       </c>
     </row>
     <row r="11">
@@ -1235,19 +1235,19 @@
         <v>337930</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>332127</v>
+        <v>331807</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>340361</v>
+        <v>340397</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9889532743468257</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9719714090634661</v>
+        <v>0.9710338372933901</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9960664854512854</v>
+        <v>0.9961728162998212</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>857</v>
@@ -1256,19 +1256,19 @@
         <v>638160</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>633292</v>
+        <v>632236</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>640766</v>
+        <v>640662</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.994119784529866</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9865353396861138</v>
+        <v>0.9848913969660035</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.998179260673027</v>
+        <v>0.9980175721573432</v>
       </c>
     </row>
     <row r="12">
@@ -1373,19 +1373,19 @@
         <v>1735</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5187</v>
+        <v>5625</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004135768273124548</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.000796736454916351</v>
+        <v>0.0008087479255392502</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0123622064665644</v>
+        <v>0.01340512389840271</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1394,19 +1394,19 @@
         <v>1735</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>5708</v>
+        <v>5768</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002195761255961665</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0004258118267592337</v>
+        <v>0.0004327718163177882</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.007222230849443269</v>
+        <v>0.007298520954873491</v>
       </c>
     </row>
     <row r="14">
@@ -1436,19 +1436,19 @@
         <v>417878</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>414426</v>
+        <v>413988</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>419279</v>
+        <v>419274</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9958642317268754</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9876377935334356</v>
+        <v>0.9865948761015972</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9992032635450836</v>
+        <v>0.9991912520744608</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>879</v>
@@ -1457,19 +1457,19 @@
         <v>788616</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>784643</v>
+        <v>784583</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>790014</v>
+        <v>790009</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9978042387440383</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9927777691505567</v>
+        <v>0.9927014790451268</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9995741881732408</v>
+        <v>0.9995672281836823</v>
       </c>
     </row>
     <row r="15">
@@ -1564,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2637</v>
+        <v>2226</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.002638984619238502</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0139298869415862</v>
+        <v>0.01175767728867509</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2555</v>
+        <v>2579</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.001221111769042526</v>
@@ -1607,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.006244945157607511</v>
+        <v>0.006304680660890579</v>
       </c>
     </row>
     <row r="17">
@@ -1624,16 +1624,16 @@
         <v>188799</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>186662</v>
+        <v>187073</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>189299</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9973610153807614</v>
+        <v>0.9973610153807616</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9860701130584137</v>
+        <v>0.9882423227113249</v>
       </c>
       <c r="I17" s="6" t="n">
         <v>1</v>
@@ -1658,16 +1658,16 @@
         <v>408601</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>406546</v>
+        <v>406522</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>409101</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9987788882309576</v>
+        <v>0.9987788882309574</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9937550548423925</v>
+        <v>0.9936953193391093</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1778,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1972</v>
+        <v>2087</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.001388352567621286</v>
@@ -1787,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.007840957125399969</v>
+        <v>0.008296408986357931</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1799,7 +1799,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1887</v>
+        <v>2010</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0006967031812998791</v>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.003764831510087776</v>
+        <v>0.004010397028485446</v>
       </c>
     </row>
     <row r="20">
@@ -1838,7 +1838,7 @@
         <v>251211</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>249588</v>
+        <v>249473</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>251560</v>
@@ -1847,7 +1847,7 @@
         <v>0.9986116474323787</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9921590428746005</v>
+        <v>0.991703591013642</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1859,7 +1859,7 @@
         <v>500945</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>499407</v>
+        <v>499284</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>501294</v>
@@ -1868,7 +1868,7 @@
         <v>0.9993032968187001</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9962351684899129</v>
+        <v>0.995989602971514</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -1963,19 +1963,19 @@
         <v>7057</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2440</v>
+        <v>2348</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14602</v>
+        <v>14033</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01011501078352014</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003497312299421565</v>
+        <v>0.003365417101139462</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02092957142754048</v>
+        <v>0.02011380222734612</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -1984,19 +1984,19 @@
         <v>9107</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>4932</v>
+        <v>4920</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>16325</v>
+        <v>15519</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01228424790759275</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.00665294939376646</v>
+        <v>0.006635806427655947</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02201991188052727</v>
+        <v>0.02093292527710095</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>18</v>
@@ -2005,19 +2005,19 @@
         <v>16164</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>9953</v>
+        <v>9626</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>25618</v>
+        <v>25300</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01123257080086544</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.006916609905439407</v>
+        <v>0.006688903410362096</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01780214338871371</v>
+        <v>0.01758107135309816</v>
       </c>
     </row>
     <row r="23">
@@ -2034,19 +2034,19 @@
         <v>690623</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>683078</v>
+        <v>683647</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>695240</v>
+        <v>695332</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.98988498921648</v>
+        <v>0.9898849892164798</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9790704285724602</v>
+        <v>0.979886197772654</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9965026877005785</v>
+        <v>0.9966345828988608</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>911</v>
@@ -2055,19 +2055,19 @@
         <v>732279</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>725061</v>
+        <v>725867</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>736454</v>
+        <v>736466</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9877157520924073</v>
+        <v>0.9877157520924074</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9779800881194726</v>
+        <v>0.979067074722899</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9933470506062336</v>
+        <v>0.9933641935723441</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1486</v>
@@ -2076,19 +2076,19 @@
         <v>1422902</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1413448</v>
+        <v>1413766</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1429113</v>
+        <v>1429440</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9887674291991346</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.982197856611286</v>
+        <v>0.9824189286469019</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9930833900945606</v>
+        <v>0.9933110965896379</v>
       </c>
     </row>
     <row r="24">
@@ -2183,7 +2183,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11063</v>
+        <v>9309</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.002389164428216474</v>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.01434747552597003</v>
+        <v>0.01207263057070505</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2201,19 +2201,19 @@
         <v>5832</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2507</v>
+        <v>2532</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>13310</v>
+        <v>12609</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.007197191680242756</v>
+        <v>0.007197191680242754</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.003093687648123403</v>
+        <v>0.003124861672766273</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.01642558489858597</v>
+        <v>0.01556040202555273</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>8</v>
@@ -2222,19 +2222,19 @@
         <v>7674</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>3296</v>
+        <v>3728</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>15988</v>
+        <v>15903</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.004852857712205338</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.00208397461021626</v>
+        <v>0.00235726516388587</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.01011037839995721</v>
+        <v>0.01005660237376253</v>
       </c>
     </row>
     <row r="26">
@@ -2251,7 +2251,7 @@
         <v>769208</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>759987</v>
+        <v>761741</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>771050</v>
@@ -2260,7 +2260,7 @@
         <v>0.9976108355717835</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.98565252447403</v>
+        <v>0.987927369429295</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -2272,19 +2272,19 @@
         <v>804475</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>796997</v>
+        <v>797698</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>807800</v>
+        <v>807775</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9928028083197572</v>
+        <v>0.9928028083197571</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9835744151014146</v>
+        <v>0.9844395979744474</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9969063123518767</v>
+        <v>0.9968751383272337</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1775</v>
@@ -2293,19 +2293,19 @@
         <v>1573683</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1565369</v>
+        <v>1565454</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1578061</v>
+        <v>1577629</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9951471422877946</v>
+        <v>0.9951471422877948</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9898896216000427</v>
+        <v>0.9899433976262377</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9979160253897836</v>
+        <v>0.9976427348361142</v>
       </c>
     </row>
     <row r="27">
@@ -2397,19 +2397,19 @@
         <v>10755</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>5520</v>
+        <v>5415</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>21445</v>
+        <v>20502</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.003165421777846134</v>
+        <v>0.003165421777846135</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.00162456209404441</v>
+        <v>0.001593632443827996</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.006311647479383078</v>
+        <v>0.006034188647817207</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>32</v>
@@ -2418,19 +2418,19 @@
         <v>22984</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>15679</v>
+        <v>15317</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>32565</v>
+        <v>32359</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.006339570021474907</v>
+        <v>0.006339570021474908</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.004324573744528856</v>
+        <v>0.004224772903958522</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.008982351092309425</v>
+        <v>0.008925572661733721</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>41</v>
@@ -2439,19 +2439,19 @@
         <v>33739</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>24051</v>
+        <v>24511</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>47497</v>
+        <v>46340</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.004803967007297226</v>
+        <v>0.004803967007297227</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.003424482217022361</v>
+        <v>0.003490097040619472</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.006762913157927819</v>
+        <v>0.006598243935409579</v>
       </c>
     </row>
     <row r="29">
@@ -2468,19 +2468,19 @@
         <v>3386923</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>3376233</v>
+        <v>3377176</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3392158</v>
+        <v>3392263</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.9968345782221539</v>
+        <v>0.9968345782221538</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.9936883525206173</v>
+        <v>0.9939658113521828</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9983754379059556</v>
+        <v>0.9984063675561718</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>5185</v>
@@ -2489,19 +2489,19 @@
         <v>3602464</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>3592883</v>
+        <v>3593089</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3609769</v>
+        <v>3610131</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9936604299785251</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.9910176489076905</v>
+        <v>0.9910744273382661</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9956754262554711</v>
+        <v>0.9957752270960413</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>8429</v>
@@ -2510,19 +2510,19 @@
         <v>6989386</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>6975628</v>
+        <v>6976785</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6999074</v>
+        <v>6998614</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.9951960329927029</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.9932370868420721</v>
+        <v>0.9934017560645905</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.9965755177829775</v>
+        <v>0.9965099029593807</v>
       </c>
     </row>
     <row r="30">
